--- a/___Statistical_Thinking_II_-Notas___/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/___Statistical_Thinking_II_-Notas___/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -1,25 +1,39 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Statistical_Thinking_II_-Notas___\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B586C7-B6B3-437C-BC40-004C30968C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="21600" yWindow="5295" windowWidth="6285" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -330,13 +344,28 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A3" sqref="A3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <f>_xlfn.T.INV(0.05,35)</f>
+        <v>-1.6895724577802647</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <f>_xlfn.T.DIST(-1.15,35,1)</f>
+        <v>0.12897060126482765</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/___Statistical_Thinking_II_-Notas___/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
+++ b/___Statistical_Thinking_II_-Notas___/Nuevo Hoja de cálculo de Microsoft Excel.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\___UFM-Cursos___\4_Semestre-[Julio-Noviembre-2020]\____SumaDeCursosUFM2.2____\___Statistical_Thinking_II_-Notas___\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{37B586C7-B6B3-437C-BC40-004C30968C23}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B9F9E5D-DF3B-46A3-8A2F-2FE77FCDE588}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="21600" yWindow="5295" windowWidth="6285" windowHeight="9060" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="10755" yWindow="1125" windowWidth="10170" windowHeight="12615" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,6 +30,17 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+  <si>
+    <t>prom</t>
+  </si>
+  <si>
+    <t xml:space="preserve">s </t>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -345,24 +356,92 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A2:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A1">
-        <f>_xlfn.T.INV(0.05,35)</f>
-        <v>-1.6895724577802647</v>
-      </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
-        <f>_xlfn.T.DIST(-1.15,35,1)</f>
-        <v>0.12897060126482765</v>
+        <v>310</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <f>AVERAGE(A2:A11)</f>
+        <v>365.2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>311</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <f>_xlfn.STDEV.S(A2:A11)</f>
+        <v>48.416709695907549</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>412</v>
+      </c>
+      <c r="C4">
+        <f>(C2-400)/(C3/SQRT(10))</f>
+        <v>-2.2729190658563367</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>368</v>
+      </c>
+      <c r="C5">
+        <f>_xlfn.T.DIST.2T(0.05,9)</f>
+        <v>0.96121446471381466</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>447</v>
+      </c>
+      <c r="C6">
+        <f>_xlfn.T.DIST(0.05,9,1)</f>
+        <v>0.51939276764309272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>376</v>
+      </c>
+      <c r="C7">
+        <f>_xlfn.T.DIST(0.025,9,0)</f>
+        <v>0.38790020259341756</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>350</v>
       </c>
     </row>
   </sheetData>
